--- a/public/kuesioner.xlsx
+++ b/public/kuesioner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunoa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Kuesioner-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBFB716-A929-44D6-B236-02904E59C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A655FB3-930A-4719-AF34-B408FC9D2289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3670A709-2F26-4FA9-9586-67FE7B6A6E4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3670A709-2F26-4FA9-9586-67FE7B6A6E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>2022/2024</t>
-  </si>
-  <si>
-    <t>2022/2025</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nama2</t>
   </si>
@@ -45,15 +39,6 @@
     <t>password3</t>
   </si>
   <si>
-    <t>D3 Sistem Informasi</t>
-  </si>
-  <si>
-    <t>Jurusan Manajemen Informatika</t>
-  </si>
-  <si>
-    <t>D4 Rekayasa Perangkat Lunak</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -63,26 +48,17 @@
     <t>Periode</t>
   </si>
   <si>
-    <t>Seemster</t>
-  </si>
-  <si>
-    <t>Jurusan</t>
-  </si>
-  <si>
-    <t>Prodi</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Baris ini dihapus jika ingin melakukan export</t>
+    <t>tingkat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +68,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,11 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,91 +409,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF439BF0-4151-4223-980B-F2A0B9085502}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2022001</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>2022001</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2022002</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>2022002</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
